--- a/RNN_4_20.xlsx
+++ b/RNN_4_20.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -56,21 +56,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -505,8 +505,12 @@
       <c r="A2" s="2" t="n">
         <v>44200</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>43.13063430786133</v>
+      </c>
+      <c r="C2" t="n">
+        <v>41.49066925048828</v>
+      </c>
       <c r="D2" t="n">
         <v>38.3306</v>
       </c>
@@ -519,9 +523,15 @@
       <c r="G2" t="n">
         <v>40.34</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>3.160069250488284</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.760669250488284</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.639965057373047</v>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -537,8 +547,12 @@
       <c r="A3" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>43.13156509399414</v>
+      </c>
+      <c r="C3" t="n">
+        <v>41.45917510986328</v>
+      </c>
       <c r="D3" t="n">
         <v>38.45</v>
       </c>
@@ -551,9 +565,15 @@
       <c r="G3" t="n">
         <v>40.085</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>3.009175109863278</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.909175109863284</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.672389984130859</v>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>15:00:00</t>
@@ -569,8 +589,12 @@
       <c r="A4" s="2" t="n">
         <v>44202</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>41.96001052856445</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40.17108154296875</v>
+      </c>
       <c r="D4" t="n">
         <v>39.54</v>
       </c>
@@ -583,9 +607,15 @@
       <c r="G4" t="n">
         <v>40.9</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0.6310815429687509</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2089184570312526</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.788928985595703</v>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>15:00:00</t>
@@ -601,8 +631,12 @@
       <c r="A5" s="2" t="n">
         <v>44203</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>41.97257614135742</v>
+      </c>
+      <c r="C5" t="n">
+        <v>40.24996185302734</v>
+      </c>
       <c r="D5" t="n">
         <v>40.21</v>
       </c>
@@ -615,9 +649,15 @@
       <c r="G5" t="n">
         <v>40.945</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>0.0399618530273429</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.01996185302734688</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.722614288330078</v>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>11:00:00</t>
@@ -633,8 +673,12 @@
       <c r="A6" s="2" t="n">
         <v>44204</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>42.49660110473633</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40.85060882568359</v>
+      </c>
       <c r="D6" t="n">
         <v>39.765</v>
       </c>
@@ -647,9 +691,15 @@
       <c r="G6" t="n">
         <v>40.6911</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>1.085608825683593</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.8306088256835906</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.645992279052734</v>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -665,8 +715,12 @@
       <c r="A7" s="2" t="n">
         <v>44207</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>42.86172866821289</v>
+      </c>
+      <c r="C7" t="n">
+        <v>41.32410430908203</v>
+      </c>
       <c r="D7" t="n">
         <v>38.9</v>
       </c>
@@ -679,9 +733,15 @@
       <c r="G7" t="n">
         <v>39.99</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>2.424104309082033</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.914104309082035</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.537624359130859</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>11:00:00</t>
@@ -697,8 +757,12 @@
       <c r="A8" s="2" t="n">
         <v>44208</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>42.70047760009766</v>
+      </c>
+      <c r="C8" t="n">
+        <v>41.19181060791016</v>
+      </c>
       <c r="D8" t="n">
         <v>39.16</v>
       </c>
@@ -711,9 +775,15 @@
       <c r="G8" t="n">
         <v>40.41</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>2.03181060791016</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.8918106079101591</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.5086669921875</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>16:00:00</t>
@@ -729,8 +799,12 @@
       <c r="A9" s="2" t="n">
         <v>44209</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>42.12540435791016</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40.57293319702148</v>
+      </c>
       <c r="D9" t="n">
         <v>39.6299</v>
       </c>
@@ -743,9 +817,15 @@
       <c r="G9" t="n">
         <v>40.74</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>0.9430331970214851</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.1229331970214815</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.552471160888672</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>15:00:00</t>
@@ -761,8 +841,12 @@
       <c r="A10" s="2" t="n">
         <v>44210</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>42.45291900634766</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40.92985534667969</v>
+      </c>
       <c r="D10" t="n">
         <v>41.12</v>
       </c>
@@ -775,9 +859,15 @@
       <c r="G10" t="n">
         <v>42.64</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>-0.1901446533203099</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5401446533203114</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.523063659667969</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>11:00:00</t>
@@ -793,8 +883,12 @@
       <c r="A11" s="2" t="n">
         <v>44211</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>42.83412933349609</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41.26879501342773</v>
+      </c>
       <c r="D11" t="n">
         <v>39.96</v>
       </c>
@@ -807,9 +901,15 @@
       <c r="G11" t="n">
         <v>41.67</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>1.308795013427734</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-1.288795013427738</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.565334320068359</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -825,8 +925,12 @@
       <c r="A12" s="2" t="n">
         <v>44215</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>43.51706695556641</v>
+      </c>
+      <c r="C12" t="n">
+        <v>41.88089752197266</v>
+      </c>
       <c r="D12" t="n">
         <v>39.8007</v>
       </c>
@@ -839,9 +943,15 @@
       <c r="G12" t="n">
         <v>40.65</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>2.080197521972657</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.570897521972654</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.63616943359375</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>14:00:00</t>
@@ -857,8 +967,12 @@
       <c r="A13" s="2" t="n">
         <v>44216</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>42.80306243896484</v>
+      </c>
+      <c r="C13" t="n">
+        <v>41.09070587158203</v>
+      </c>
       <c r="D13" t="n">
         <v>40.5</v>
       </c>
@@ -871,9 +985,15 @@
       <c r="G13" t="n">
         <v>41.77</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0.5907058715820312</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5292941284179662</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.712356567382812</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>14:00:00</t>
@@ -889,8 +1009,12 @@
       <c r="A14" s="2" t="n">
         <v>44217</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>42.73406600952148</v>
+      </c>
+      <c r="C14" t="n">
+        <v>41.08269500732422</v>
+      </c>
       <c r="D14" t="n">
         <v>40.17</v>
       </c>
@@ -903,9 +1027,15 @@
       <c r="G14" t="n">
         <v>41.43</v>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>0.912695007324217</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.412695007324217</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.651371002197266</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -921,8 +1051,12 @@
       <c r="A15" s="2" t="n">
         <v>44218</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>43.35766220092773</v>
+      </c>
+      <c r="C15" t="n">
+        <v>41.81162643432617</v>
+      </c>
       <c r="D15" t="n">
         <v>39.81</v>
       </c>
@@ -935,9 +1069,15 @@
       <c r="G15" t="n">
         <v>40.27</v>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>2.00162643432617</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-1.811626434326172</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.546035766601562</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>11:00:00</t>
@@ -953,8 +1093,12 @@
       <c r="A16" s="2" t="n">
         <v>44221</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>42.99305725097656</v>
+      </c>
+      <c r="C16" t="n">
+        <v>41.41619110107422</v>
+      </c>
       <c r="D16" t="n">
         <v>38.42</v>
       </c>
@@ -967,9 +1111,15 @@
       <c r="G16" t="n">
         <v>39.75</v>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>2.996191101074217</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-2.51619110107422</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.576866149902344</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -985,8 +1135,12 @@
       <c r="A17" s="2" t="n">
         <v>44222</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>42.60830307006836</v>
+      </c>
+      <c r="C17" t="n">
+        <v>40.97686767578125</v>
+      </c>
       <c r="D17" t="n">
         <v>38.98</v>
       </c>
@@ -999,9 +1153,15 @@
       <c r="G17" t="n">
         <v>39.64</v>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>1.996867675781253</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-1.65686767578125</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.631435394287109</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>13:00:00</t>
@@ -1017,8 +1177,12 @@
       <c r="A18" s="2" t="n">
         <v>44223</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>41.68045043945312</v>
+      </c>
+      <c r="C18" t="n">
+        <v>39.93918228149414</v>
+      </c>
       <c r="D18" t="n">
         <v>38.1609</v>
       </c>
@@ -1031,9 +1195,15 @@
       <c r="G18" t="n">
         <v>39.2254</v>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>1.778282281494143</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-1.419182281494137</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.741268157958984</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>12:00:00</t>
@@ -1049,8 +1219,12 @@
       <c r="A19" s="2" t="n">
         <v>44224</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>41.69246292114258</v>
+      </c>
+      <c r="C19" t="n">
+        <v>39.93791198730469</v>
+      </c>
       <c r="D19" t="n">
         <v>38.99</v>
       </c>
@@ -1063,9 +1237,15 @@
       <c r="G19" t="n">
         <v>40.37</v>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>0.9479119873046855</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1420880126953108</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.754550933837891</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>11:00:00</t>
@@ -1081,8 +1261,12 @@
       <c r="A20" s="2" t="n">
         <v>44225</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>41.30023193359375</v>
+      </c>
+      <c r="C20" t="n">
+        <v>39.37453842163086</v>
+      </c>
       <c r="D20" t="n">
         <v>37.74</v>
       </c>
@@ -1095,9 +1279,15 @@
       <c r="G20" t="n">
         <v>39.83</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>1.634538421630857</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1.414538421630859</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.925693511962891</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -1113,8 +1303,12 @@
       <c r="A21" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>41.84060668945312</v>
+      </c>
+      <c r="C21" t="n">
+        <v>39.91334533691406</v>
+      </c>
       <c r="D21" t="n">
         <v>37.415</v>
       </c>
@@ -1127,9 +1321,15 @@
       <c r="G21" t="n">
         <v>38.4448</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>2.498345336914063</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-2.093345336914062</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.927261352539062</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -1145,8 +1345,12 @@
       <c r="A22" s="2" t="n">
         <v>44229</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>40.87139129638672</v>
+      </c>
+      <c r="C22" t="n">
+        <v>38.77997589111328</v>
+      </c>
       <c r="D22" t="n">
         <v>37.99</v>
       </c>
@@ -1159,9 +1363,15 @@
       <c r="G22" t="n">
         <v>38.88</v>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>0.7899758911132793</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.02002410888671591</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.091415405273438</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>16:00:00</t>
@@ -1177,8 +1387,12 @@
       <c r="A23" s="2" t="n">
         <v>44230</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>40.64133834838867</v>
+      </c>
+      <c r="C23" t="n">
+        <v>38.52581024169922</v>
+      </c>
       <c r="D23" t="n">
         <v>38.7</v>
       </c>
@@ -1191,9 +1405,15 @@
       <c r="G23" t="n">
         <v>39.9</v>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>-0.1741897583007841</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.254189758300782</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.115528106689453</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>15:00:00</t>
@@ -1209,8 +1429,12 @@
       <c r="A24" s="2" t="n">
         <v>44231</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>41.1153564453125</v>
+      </c>
+      <c r="C24" t="n">
+        <v>39.01498413085938</v>
+      </c>
       <c r="D24" t="n">
         <v>39.94</v>
       </c>
@@ -1223,9 +1447,15 @@
       <c r="G24" t="n">
         <v>41.07</v>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>-0.9250158691406227</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.915015869140625</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.100372314453125</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>15:00:00</t>
@@ -1241,8 +1471,12 @@
       <c r="A25" s="2" t="n">
         <v>44232</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>41.81289672851562</v>
+      </c>
+      <c r="C25" t="n">
+        <v>39.73423385620117</v>
+      </c>
       <c r="D25" t="n">
         <v>40.75</v>
       </c>
@@ -1255,9 +1489,15 @@
       <c r="G25" t="n">
         <v>41.4</v>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>-1.015766143798828</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.415766143798827</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.078662872314453</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>13:00:00</t>
@@ -1273,8 +1513,12 @@
       <c r="A26" s="2" t="n">
         <v>44235</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>43.09584426879883</v>
+      </c>
+      <c r="C26" t="n">
+        <v>41.12209320068359</v>
+      </c>
       <c r="D26" t="n">
         <v>41.36</v>
       </c>
@@ -1287,9 +1531,15 @@
       <c r="G26" t="n">
         <v>43.4597</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>-0.2379067993164057</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.117906799316408</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.973751068115234</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>13:00:00</t>
@@ -1305,8 +1555,12 @@
       <c r="A27" s="2" t="n">
         <v>44236</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>43.671142578125</v>
+      </c>
+      <c r="C27" t="n">
+        <v>41.76163864135742</v>
+      </c>
       <c r="D27" t="n">
         <v>41.81</v>
       </c>
@@ -1319,9 +1573,15 @@
       <c r="G27" t="n">
         <v>42.96</v>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>-0.0483613586425804</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.7483613586425761</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.909503936767578</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -1337,8 +1597,12 @@
       <c r="A28" s="2" t="n">
         <v>44237</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>44.58671569824219</v>
+      </c>
+      <c r="C28" t="n">
+        <v>42.81325149536133</v>
+      </c>
       <c r="D28" t="n">
         <v>42.16</v>
       </c>
@@ -1351,9 +1615,15 @@
       <c r="G28" t="n">
         <v>43.22</v>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>0.6532514953613315</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.08674850463867045</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.773464202880859</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>13:00:00</t>
@@ -1369,8 +1639,12 @@
       <c r="A29" s="2" t="n">
         <v>44238</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>44.54263305664062</v>
+      </c>
+      <c r="C29" t="n">
+        <v>42.88914108276367</v>
+      </c>
       <c r="D29" t="n">
         <v>41.995</v>
       </c>
@@ -1383,9 +1657,15 @@
       <c r="G29" t="n">
         <v>43.135</v>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>0.8941410827636744</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.169141082763673</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.653491973876953</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>11:00:00</t>
@@ -1401,8 +1681,12 @@
       <c r="A30" s="2" t="n">
         <v>44239</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>44.69036102294922</v>
+      </c>
+      <c r="C30" t="n">
+        <v>43.20353698730469</v>
+      </c>
       <c r="D30" t="n">
         <v>42.41</v>
       </c>
@@ -1415,9 +1699,15 @@
       <c r="G30" t="n">
         <v>43.94</v>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>0.7935369873046909</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.08646301269531165</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.486824035644531</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>11:00:00</t>
@@ -1433,8 +1723,12 @@
       <c r="A31" s="2" t="n">
         <v>44243</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>44.53598022460938</v>
+      </c>
+      <c r="C31" t="n">
+        <v>43.13375091552734</v>
+      </c>
       <c r="D31" t="n">
         <v>43.78</v>
       </c>
@@ -1447,9 +1741,15 @@
       <c r="G31" t="n">
         <v>44.81</v>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>-0.6462490844726574</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.516249084472655</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.402229309082031</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>16:00:00</t>
@@ -1465,8 +1765,12 @@
       <c r="A32" s="2" t="n">
         <v>44244</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>44.88923645019531</v>
+      </c>
+      <c r="C32" t="n">
+        <v>43.60459136962891</v>
+      </c>
       <c r="D32" t="n">
         <v>43.535</v>
       </c>
@@ -1479,9 +1783,15 @@
       <c r="G32" t="n">
         <v>44.5</v>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>0.06959136962890966</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.7854086303710943</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.284645080566406</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -1497,8 +1807,12 @@
       <c r="A33" s="2" t="n">
         <v>44245</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>45.71001052856445</v>
+      </c>
+      <c r="C33" t="n">
+        <v>44.53318405151367</v>
+      </c>
       <c r="D33" t="n">
         <v>43.37</v>
       </c>
@@ -1511,9 +1825,15 @@
       <c r="G33" t="n">
         <v>44.545</v>
       </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>1.163184051513674</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.1531840515136693</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.176826477050781</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>16:00:00</t>
@@ -1529,8 +1849,12 @@
       <c r="A34" s="2" t="n">
         <v>44246</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>45.6575927734375</v>
+      </c>
+      <c r="C34" t="n">
+        <v>44.58150482177734</v>
+      </c>
       <c r="D34" t="n">
         <v>44.55</v>
       </c>
@@ -1543,9 +1867,15 @@
       <c r="G34" t="n">
         <v>46.22</v>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>0.03150482177734659</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.088495178222658</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.076087951660156</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>11:00:00</t>
@@ -1561,8 +1891,12 @@
       <c r="A35" s="2" t="n">
         <v>44249</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>45.62878036499023</v>
+      </c>
+      <c r="C35" t="n">
+        <v>44.61184310913086</v>
+      </c>
       <c r="D35" t="n">
         <v>46.47</v>
       </c>
@@ -1575,9 +1909,15 @@
       <c r="G35" t="n">
         <v>48.93</v>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>-1.858156890869139</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.128156890869143</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.016937255859375</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>12:00:00</t>
@@ -1593,8 +1933,12 @@
       <c r="A36" s="2" t="n">
         <v>44250</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>46.0089225769043</v>
+      </c>
+      <c r="C36" t="n">
+        <v>45.04702377319336</v>
+      </c>
       <c r="D36" t="n">
         <v>45.7</v>
       </c>
@@ -1607,9 +1951,15 @@
       <c r="G36" t="n">
         <v>48.875</v>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>-0.6529762268066435</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.292976226806644</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.9618988037109375</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>16:00:00</t>
@@ -1625,8 +1975,12 @@
       <c r="A37" s="2" t="n">
         <v>44251</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>46.81348419189453</v>
+      </c>
+      <c r="C37" t="n">
+        <v>45.89548492431641</v>
+      </c>
       <c r="D37" t="n">
         <v>48.62</v>
       </c>
@@ -1639,9 +1993,15 @@
       <c r="G37" t="n">
         <v>50.2</v>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>-2.724515075683591</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.704515075683595</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.917999267578125</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>12:00:00</t>
@@ -1657,8 +2017,12 @@
       <c r="A38" s="2" t="n">
         <v>44252</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>47.17243194580078</v>
+      </c>
+      <c r="C38" t="n">
+        <v>46.25253295898438</v>
+      </c>
       <c r="D38" t="n">
         <v>47.225</v>
       </c>
@@ -1671,9 +2035,15 @@
       <c r="G38" t="n">
         <v>50</v>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>-0.9724670410156264</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.997467041015625</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.9198989868164062</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -1689,8 +2059,12 @@
       <c r="A39" s="2" t="n">
         <v>44253</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>47.74884033203125</v>
+      </c>
+      <c r="C39" t="n">
+        <v>46.89975738525391</v>
+      </c>
       <c r="D39" t="n">
         <v>47.28</v>
       </c>
@@ -1703,9 +2077,15 @@
       <c r="G39" t="n">
         <v>49.14</v>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>-0.3802426147460949</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.040242614746091</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8490829467773438</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -1721,8 +2101,12 @@
       <c r="A40" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>47.07608413696289</v>
+      </c>
+      <c r="C40" t="n">
+        <v>46.18220138549805</v>
+      </c>
       <c r="D40" t="n">
         <v>48.06</v>
       </c>
@@ -1735,9 +2119,15 @@
       <c r="G40" t="n">
         <v>49.959</v>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>-1.877798614501955</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.877798614501955</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8938827514648438</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -1753,8 +2143,12 @@
       <c r="A41" s="2" t="n">
         <v>44257</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>46.75511169433594</v>
+      </c>
+      <c r="C41" t="n">
+        <v>45.90145874023438</v>
+      </c>
       <c r="D41" t="n">
         <v>47.38</v>
       </c>
@@ -1767,9 +2161,15 @@
       <c r="G41" t="n">
         <v>48.6799</v>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>-1.478541259765628</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.328541259765622</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8536529541015625</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>15:00:00</t>
@@ -1785,8 +2185,12 @@
       <c r="A42" s="2" t="n">
         <v>44258</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>46.89185333251953</v>
+      </c>
+      <c r="C42" t="n">
+        <v>46.02864837646484</v>
+      </c>
       <c r="D42" t="n">
         <v>48.14</v>
       </c>
@@ -1799,9 +2203,15 @@
       <c r="G42" t="n">
         <v>49.085</v>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>-2.111351623535157</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.321351623535158</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.8632049560546875</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>14:00:00</t>
@@ -1817,8 +2227,12 @@
       <c r="A43" s="2" t="n">
         <v>44259</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>47.02478790283203</v>
+      </c>
+      <c r="C43" t="n">
+        <v>46.18212127685547</v>
+      </c>
       <c r="D43" t="n">
         <v>45.32</v>
       </c>
@@ -1831,9 +2245,15 @@
       <c r="G43" t="n">
         <v>48.41</v>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>0.8621212768554685</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.7778787231445321</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.8426666259765625</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -1849,8 +2269,12 @@
       <c r="A44" s="2" t="n">
         <v>44260</v>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>47.24843978881836</v>
+      </c>
+      <c r="C44" t="n">
+        <v>46.35005950927734</v>
+      </c>
       <c r="D44" t="n">
         <v>43.01</v>
       </c>
@@ -1863,9 +2287,15 @@
       <c r="G44" t="n">
         <v>47</v>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>3.340059509277346</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.1400595092773429</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.8983802795410156</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -1881,8 +2311,12 @@
       <c r="A45" s="2" t="n">
         <v>44263</v>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>46.24222946166992</v>
+      </c>
+      <c r="C45" t="n">
+        <v>45.11931610107422</v>
+      </c>
       <c r="D45" t="n">
         <v>46.7</v>
       </c>
@@ -1895,9 +2329,15 @@
       <c r="G45" t="n">
         <v>48.22</v>
       </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>-1.580683898925784</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.760683898925784</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.122913360595703</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>14:00:00</t>
@@ -1913,8 +2353,12 @@
       <c r="A46" s="2" t="n">
         <v>44264</v>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>45.10311889648438</v>
+      </c>
+      <c r="C46" t="n">
+        <v>43.73122024536133</v>
+      </c>
       <c r="D46" t="n">
         <v>46.34</v>
       </c>
@@ -1927,9 +2371,15 @@
       <c r="G46" t="n">
         <v>48.08</v>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>-2.608779754638675</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.888779754638669</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.371898651123047</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -1945,8 +2395,12 @@
       <c r="A47" s="2" t="n">
         <v>44265</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>45.48532104492188</v>
+      </c>
+      <c r="C47" t="n">
+        <v>44.08292007446289</v>
+      </c>
       <c r="D47" t="n">
         <v>47.16</v>
       </c>
@@ -1959,9 +2413,15 @@
       <c r="G47" t="n">
         <v>48.575</v>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>-3.077079925537106</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.717079925537107</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.402400970458984</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -1977,8 +2437,12 @@
       <c r="A48" s="2" t="n">
         <v>44266</v>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>45.90560913085938</v>
+      </c>
+      <c r="C48" t="n">
+        <v>44.40514373779297</v>
+      </c>
       <c r="D48" t="n">
         <v>47.58</v>
       </c>
@@ -1991,9 +2455,15 @@
       <c r="G48" t="n">
         <v>48.96</v>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>-3.17485626220703</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.914856262207032</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.500465393066406</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>12:00:00</t>
@@ -2009,8 +2479,12 @@
       <c r="A49" s="2" t="n">
         <v>44267</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>46.54930877685547</v>
+      </c>
+      <c r="C49" t="n">
+        <v>44.90139007568359</v>
+      </c>
       <c r="D49" t="n">
         <v>48.08</v>
       </c>
@@ -2023,9 +2497,15 @@
       <c r="G49" t="n">
         <v>49.86</v>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>-3.178609924316405</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.928609924316405</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.647918701171875</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>16:00:00</t>
@@ -2041,8 +2521,12 @@
       <c r="A50" s="2" t="n">
         <v>44270</v>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>47.34452056884766</v>
+      </c>
+      <c r="C50" t="n">
+        <v>45.55783081054688</v>
+      </c>
       <c r="D50" t="n">
         <v>50.75</v>
       </c>
@@ -2055,9 +2539,15 @@
       <c r="G50" t="n">
         <v>52.28</v>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>-5.192169189453125</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.432169189453127</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.786689758300781</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>12:00:00</t>
@@ -2073,8 +2563,12 @@
       <c r="A51" s="2" t="n">
         <v>44271</v>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>48.3022346496582</v>
+      </c>
+      <c r="C51" t="n">
+        <v>46.38879013061523</v>
+      </c>
       <c r="D51" t="n">
         <v>49.03</v>
       </c>
@@ -2087,9 +2581,15 @@
       <c r="G51" t="n">
         <v>51.14</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>-2.641209869384767</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.001209869384766</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.913444519042969</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -2105,8 +2605,12 @@
       <c r="A52" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>49.12341690063477</v>
+      </c>
+      <c r="C52" t="n">
+        <v>47.1376838684082</v>
+      </c>
       <c r="D52" t="n">
         <v>49.01</v>
       </c>
@@ -2119,9 +2623,15 @@
       <c r="G52" t="n">
         <v>50.64</v>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>-1.872316131591795</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.302316131591795</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.985733032226562</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>16:00:00</t>
@@ -2137,8 +2647,12 @@
       <c r="A53" s="2" t="n">
         <v>44273</v>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>48.47245025634766</v>
+      </c>
+      <c r="C53" t="n">
+        <v>46.39920806884766</v>
+      </c>
       <c r="D53" t="n">
         <v>48.93</v>
       </c>
@@ -2151,9 +2665,15 @@
       <c r="G53" t="n">
         <v>50.98</v>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>-2.530791931152343</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.780791931152343</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.0732421875</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>13:00:00</t>
@@ -2169,8 +2689,12 @@
       <c r="A54" s="2" t="n">
         <v>44274</v>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>48.54310607910156</v>
+      </c>
+      <c r="C54" t="n">
+        <v>46.59740447998047</v>
+      </c>
       <c r="D54" t="n">
         <v>47.83</v>
       </c>
@@ -2183,9 +2707,15 @@
       <c r="G54" t="n">
         <v>49.21</v>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>-1.23259552001953</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.402595520019531</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.945701599121094</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -2201,8 +2731,12 @@
       <c r="A55" s="2" t="n">
         <v>44277</v>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>48.10626983642578</v>
+      </c>
+      <c r="C55" t="n">
+        <v>46.08065795898438</v>
+      </c>
       <c r="D55" t="n">
         <v>47.745</v>
       </c>
@@ -2215,9 +2749,15 @@
       <c r="G55" t="n">
         <v>48.62</v>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>-1.664342041015622</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.889342041015624</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.025611877441406</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -2233,8 +2773,12 @@
       <c r="A56" s="2" t="n">
         <v>44278</v>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>48.01398468017578</v>
+      </c>
+      <c r="C56" t="n">
+        <v>45.97116470336914</v>
+      </c>
       <c r="D56" t="n">
         <v>45.45</v>
       </c>
@@ -2247,9 +2791,15 @@
       <c r="G56" t="n">
         <v>47.83</v>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>0.5211647033691378</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.3311647033691401</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.042819976806641</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -2265,8 +2815,12 @@
       <c r="A57" s="2" t="n">
         <v>44279</v>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>47.54482269287109</v>
+      </c>
+      <c r="C57" t="n">
+        <v>45.34638214111328</v>
+      </c>
       <c r="D57" t="n">
         <v>45.56</v>
       </c>
@@ -2279,9 +2833,15 @@
       <c r="G57" t="n">
         <v>47.3999</v>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>-0.213617858886721</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.2636178588867182</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.198440551757812</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>11:00:00</t>
@@ -2297,8 +2857,12 @@
       <c r="A58" s="2" t="n">
         <v>44280</v>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>46.3607292175293</v>
+      </c>
+      <c r="C58" t="n">
+        <v>43.93389892578125</v>
+      </c>
       <c r="D58" t="n">
         <v>44.52</v>
       </c>
@@ -2311,9 +2875,15 @@
       <c r="G58" t="n">
         <v>47.215</v>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>-0.5861010742187531</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.076101074218748</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.426830291748047</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>13:00:00</t>
@@ -2329,8 +2899,12 @@
       <c r="A59" s="2" t="n">
         <v>44281</v>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>46.06561279296875</v>
+      </c>
+      <c r="C59" t="n">
+        <v>43.53862380981445</v>
+      </c>
       <c r="D59" t="n">
         <v>46.56</v>
       </c>
@@ -2343,9 +2917,15 @@
       <c r="G59" t="n">
         <v>47.94</v>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>-3.021376190185549</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4.121376190185543</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.526988983154297</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>11:00:00</t>
@@ -2361,8 +2941,12 @@
       <c r="A60" s="2" t="n">
         <v>44284</v>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>46.56450271606445</v>
+      </c>
+      <c r="C60" t="n">
+        <v>43.98571395874023</v>
+      </c>
       <c r="D60" t="n">
         <v>46.71</v>
       </c>
@@ -2375,9 +2959,15 @@
       <c r="G60" t="n">
         <v>48.1</v>
       </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>-2.724286041259766</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.334286041259766</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.578788757324219</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>10:00:00</t>
@@ -2393,8 +2983,12 @@
       <c r="A61" s="2" t="n">
         <v>44285</v>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>47.25740814208984</v>
+      </c>
+      <c r="C61" t="n">
+        <v>44.56194686889648</v>
+      </c>
       <c r="D61" t="n">
         <v>47.42</v>
       </c>
@@ -2407,9 +3001,15 @@
       <c r="G61" t="n">
         <v>49.04</v>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>-2.858053131103517</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4.338053131103514</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.695461273193359</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>16:00:00</t>
@@ -2425,8 +3025,12 @@
       <c r="A62" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>47.44303894042969</v>
+      </c>
+      <c r="C62" t="n">
+        <v>44.61447525024414</v>
+      </c>
       <c r="D62" t="n">
         <v>48.11</v>
       </c>
@@ -2439,13 +3043,19 @@
       <c r="G62" t="n">
         <v>49.02</v>
       </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>-3.495524749755859</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.665524749755861</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.828563690185547</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>